--- a/data_year/zb/国民经济核算/投入产出直接消耗系数/金融业投入产出直接消耗系数.xlsx
+++ b/data_year/zb/国民经济核算/投入产出直接消耗系数/金融业投入产出直接消耗系数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,304 +558,229 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.310545305128995</v>
+        <v>0.350174848743317</v>
       </c>
       <c r="D2" t="n">
-        <v>0.027265731375073</v>
+        <v>0.021169318749945</v>
       </c>
       <c r="E2" t="n">
-        <v>0.021032352617049</v>
+        <v>0.01580147992262</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>0.179085764334057</v>
+        <v>0.206308049821022</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00282617981752</v>
+        <v>0.003384268717689</v>
       </c>
       <c r="I2" t="n">
-        <v>0.009949524113071</v>
+        <v>0.015235793218889</v>
       </c>
       <c r="J2" t="n">
-        <v>0.689454694871005</v>
+        <v>0.6498251512566831</v>
       </c>
       <c r="K2" t="n">
-        <v>0.001274251975029</v>
+        <v>0.001443933091222</v>
       </c>
       <c r="L2" t="n">
-        <v>0.070929183761828</v>
+        <v>0.092904621301877</v>
       </c>
       <c r="M2" t="n">
-        <v>0.041646645149743</v>
+        <v>0.041054392904308</v>
       </c>
       <c r="N2" t="n">
-        <v>0.012186982739594</v>
+        <v>0.013777876746468</v>
       </c>
       <c r="O2" t="n">
-        <v>0.006285564399566</v>
+        <v>0.006305804567943</v>
       </c>
       <c r="P2" t="n">
-        <v>0.077822838103455</v>
+        <v>0.07914002474380701</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.009292621496070999</v>
+        <v>0.009928692416975001</v>
       </c>
       <c r="R2" t="n">
-        <v>0.002319761130586</v>
+        <v>0.002772169378798</v>
       </c>
       <c r="S2" t="n">
-        <v>0.422596568320423</v>
+        <v>0.349141283472965</v>
       </c>
       <c r="T2" t="n">
-        <v>0.048399692809643</v>
+        <v>0.057519184741786</v>
       </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>0.000660035408756</v>
+        <v>0.000902065793046</v>
       </c>
       <c r="W2" t="n">
-        <v>0.06419358052789199</v>
+        <v>0.08025598108406699</v>
       </c>
       <c r="X2" t="n">
-        <v>0.000149531296944</v>
+        <v>0.000160205024464</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0020831906237</v>
+        <v>0.00279485430211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.350174848743317</v>
+        <v>0.403739200758749</v>
       </c>
       <c r="D3" t="n">
-        <v>0.021169318749945</v>
+        <v>0.033294540620249</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01580147992262</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
+        <v>0.026117127657011</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.0913715943e-05</v>
+      </c>
       <c r="G3" t="n">
-        <v>0.206308049821022</v>
+        <v>0.186802664777605</v>
       </c>
       <c r="H3" t="n">
-        <v>0.003384268717689</v>
+        <v>0.000875169461365</v>
       </c>
       <c r="I3" t="n">
-        <v>0.015235793218889</v>
+        <v>0.015420835808101</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6498251512566831</v>
+        <v>0.596260799241251</v>
       </c>
       <c r="K3" t="n">
-        <v>0.001443933091222</v>
+        <v>0.008593365694413</v>
       </c>
       <c r="L3" t="n">
-        <v>0.092904621301877</v>
+        <v>0.155017228013517</v>
       </c>
       <c r="M3" t="n">
-        <v>0.041054392904308</v>
+        <v>0.04678357309284</v>
       </c>
       <c r="N3" t="n">
-        <v>0.013777876746468</v>
+        <v>0.004907850293214</v>
       </c>
       <c r="O3" t="n">
-        <v>0.006305804567943</v>
+        <v>0.004182815786733</v>
       </c>
       <c r="P3" t="n">
-        <v>0.07914002474380701</v>
+        <v>0.066618089209148</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.009928692416975001</v>
+        <v>0.005998748885278</v>
       </c>
       <c r="R3" t="n">
-        <v>0.002772169378798</v>
+        <v>0.005663320797159</v>
       </c>
       <c r="S3" t="n">
-        <v>0.349141283472965</v>
+        <v>0.327419209446397</v>
       </c>
       <c r="T3" t="n">
-        <v>0.057519184741786</v>
+        <v>0.047609194493608</v>
       </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="n">
-        <v>0.000902065793046</v>
+        <v>0.000134893794613</v>
       </c>
       <c r="W3" t="n">
-        <v>0.08025598108406699</v>
+        <v>0.061823890381616</v>
       </c>
       <c r="X3" t="n">
-        <v>0.000160205024464</v>
+        <v>8.62001494e-05</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.00279485430211</v>
+        <v>0.002640367921792</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.403739200758749</v>
+        <v>0.344157066046205</v>
       </c>
       <c r="D4" t="n">
-        <v>0.033294540620249</v>
+        <v>0.025171907453559</v>
       </c>
       <c r="E4" t="n">
-        <v>0.026117127657011</v>
+        <v>0.020567153237232</v>
       </c>
       <c r="F4" t="n">
-        <v>1.0913715943e-05</v>
+        <v>7.465686997e-06</v>
       </c>
       <c r="G4" t="n">
-        <v>0.186802664777605</v>
+        <v>0.197543622734159</v>
       </c>
       <c r="H4" t="n">
-        <v>0.000875169461365</v>
+        <v>0.000530529337589</v>
       </c>
       <c r="I4" t="n">
-        <v>0.015420835808101</v>
+        <v>0.011438521432548</v>
       </c>
       <c r="J4" t="n">
-        <v>0.596260799241251</v>
+        <v>0.655842933953795</v>
       </c>
       <c r="K4" t="n">
-        <v>0.008593365694413</v>
+        <v>0.004553232653148</v>
       </c>
       <c r="L4" t="n">
-        <v>0.155017228013517</v>
+        <v>0.128481209355444</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04678357309284</v>
+        <v>0.039605108974467</v>
       </c>
       <c r="N4" t="n">
-        <v>0.004907850293214</v>
+        <v>0.003124544799435</v>
       </c>
       <c r="O4" t="n">
-        <v>0.004182815786733</v>
+        <v>0.001692356146346</v>
       </c>
       <c r="P4" t="n">
-        <v>0.066618089209148</v>
+        <v>0.084148702689368</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.005998748885278</v>
+        <v>0.003231405250003</v>
       </c>
       <c r="R4" t="n">
-        <v>0.005663320797159</v>
+        <v>0.004454627785709</v>
       </c>
       <c r="S4" t="n">
-        <v>0.327419209446397</v>
+        <v>0.362712087097719</v>
       </c>
       <c r="T4" t="n">
-        <v>0.047609194493608</v>
+        <v>0.042446675920404</v>
       </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="n">
-        <v>0.000134893794613</v>
+        <v>6.5827321826e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>0.061823890381616</v>
+        <v>0.067518587657883</v>
       </c>
       <c r="X4" t="n">
-        <v>8.62001494e-05</v>
+        <v>6.1837512941e-05</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.002640367921792</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.344157066046205</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.025171907453559</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.020567153237232</v>
-      </c>
-      <c r="F5" t="n">
-        <v>7.465686997e-06</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.197543622734159</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.000530529337589</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.011438521432548</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.655842933953795</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.004553232653148</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.128481209355444</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.039605108974467</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.003124544799435</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.001692356146346</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.084148702689368</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.003231405250003</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.004454627785709</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.362712087097719</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.042446675920404</v>
-      </c>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="n">
-        <v>6.5827321826e-05</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.067518587657883</v>
-      </c>
-      <c r="X5" t="n">
-        <v>6.1837512941e-05</v>
-      </c>
-      <c r="Y5" t="n">
         <v>0.002644596953223</v>
       </c>
     </row>
